--- a/spider/xlsx/oDA4r5BFtx9ubV381iw72mdFxcVw.xlsx
+++ b/spider/xlsx/oDA4r5BFtx9ubV381iw72mdFxcVw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
   <si>
     <t>发票出纳总账目单</t>
   </si>
@@ -52,25 +52,49 @@
     <t>其他信息</t>
   </si>
   <si>
-    <t>037001700111</t>
-  </si>
-  <si>
-    <t>17697456</t>
-  </si>
-  <si>
-    <t>2018年10月20日</t>
-  </si>
-  <si>
-    <t>27.90</t>
-  </si>
-  <si>
-    <t>2019-03-03 17:05:38</t>
+    <t>021001800111</t>
+  </si>
+  <si>
+    <t>31862644</t>
+  </si>
+  <si>
+    <t>2018年10月18日</t>
+  </si>
+  <si>
+    <t>55.59</t>
+  </si>
+  <si>
+    <t>012001800211</t>
+  </si>
+  <si>
+    <t>07040406</t>
+  </si>
+  <si>
+    <t>2018年09月19日</t>
+  </si>
+  <si>
+    <t>84.60</t>
+  </si>
+  <si>
+    <t>011001800311</t>
+  </si>
+  <si>
+    <t>41129658</t>
+  </si>
+  <si>
+    <t>2018年09月15日</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>2019-03-09 18:34:19</t>
   </si>
   <si>
     <t>北方工业大学</t>
   </si>
   <si>
-    <t>山东书虫图书有限公司</t>
+    <t>江苏圆周电子商务有限公司北京分公司</t>
   </si>
   <si>
     <t>印刷品</t>
@@ -85,6 +109,39 @@
     <t>0</t>
   </si>
   <si>
+    <t>42080537</t>
+  </si>
+  <si>
+    <t>2018年09月14日</t>
+  </si>
+  <si>
+    <t>79.20</t>
+  </si>
+  <si>
+    <t>32372970</t>
+  </si>
+  <si>
+    <t>2018年11月09日</t>
+  </si>
+  <si>
+    <t>182.20</t>
+  </si>
+  <si>
+    <t>2019-03-09 22:44:45</t>
+  </si>
+  <si>
+    <t>江苏圆周电子商务有限公司沈阳分公司</t>
+  </si>
+  <si>
+    <t>43058071</t>
+  </si>
+  <si>
+    <t>63.80</t>
+  </si>
+  <si>
+    <t>2019-03-09 22:57:17</t>
+  </si>
+  <si>
     <t>021001900111</t>
   </si>
   <si>
@@ -97,7 +154,7 @@
     <t>58.18</t>
   </si>
   <si>
-    <t>2019-03-02 23:19:24</t>
+    <t>2019-03-09 16:48:33</t>
   </si>
   <si>
     <t>个人</t>
@@ -501,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -596,77 +653,57 @@
       <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -679,51 +716,65 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="I10" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -736,32 +787,48 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="I12" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -774,32 +841,48 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="K13" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="A14" s="2">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="I14" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -812,13 +895,13 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -831,13 +914,13 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -850,13 +933,13 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -869,55 +952,204 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="D19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="2">
-        <v>86</v>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="D26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="2">
+        <v>673.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="34">
     <mergeCell ref="A1:H3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A7:A18"/>
-    <mergeCell ref="B7:B18"/>
-    <mergeCell ref="C7:C18"/>
-    <mergeCell ref="D7:D18"/>
-    <mergeCell ref="E7:E18"/>
-    <mergeCell ref="F7:F18"/>
-    <mergeCell ref="G7:G18"/>
-    <mergeCell ref="H7:H18"/>
-    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A14:A25"/>
+    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="C14:C25"/>
+    <mergeCell ref="D14:D25"/>
+    <mergeCell ref="E14:E25"/>
+    <mergeCell ref="F14:F25"/>
+    <mergeCell ref="G14:G25"/>
+    <mergeCell ref="H14:H25"/>
+    <mergeCell ref="A28:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
